--- a/Multiknapsack/results/fixed_recourse/singlecut/M20_N50_T0_a25_ccg.xlsx
+++ b/Multiknapsack/results/fixed_recourse/singlecut/M20_N50_T0_a25_ccg.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
   <si>
     <t>instance</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t>Status</t>
+  </si>
+  <si>
+    <t>num cuts</t>
   </si>
   <si>
     <t>num variables</t>
@@ -68,6 +71,9 @@
   </si>
   <si>
     <t>MP gap</t>
+  </si>
+  <si>
+    <t>MP solve time</t>
   </si>
   <si>
     <t>Worst violation</t>
@@ -425,13 +431,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -456,265 +462,298 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-112.68113442290272</v>
+        <v>-71.65924129199976</v>
       </c>
       <c r="C2">
-        <v>7.613080566</v>
+        <v>11.298255562</v>
       </c>
       <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2">
-        <v>272</v>
-      </c>
       <c r="G2">
-        <v>245</v>
+        <v>494</v>
       </c>
       <c r="H2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>490</v>
+      </c>
+      <c r="I2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-110.48340379129283</v>
+        <v>-69.4525623469496</v>
       </c>
       <c r="C3">
-        <v>0.079157345</v>
+        <v>0.461637398</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F3">
-        <v>272</v>
+        <v>3</v>
       </c>
       <c r="G3">
-        <v>245</v>
+        <v>716</v>
       </c>
       <c r="H3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>735</v>
+      </c>
+      <c r="I3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>-114.51161653481327</v>
+        <v>-71.24685991078216</v>
       </c>
       <c r="C4">
-        <v>0.066533182</v>
+        <v>0.797193167</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F4">
-        <v>272</v>
+        <v>4</v>
       </c>
       <c r="G4">
-        <v>245</v>
+        <v>938</v>
       </c>
       <c r="H4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>980</v>
+      </c>
+      <c r="I4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>-115.20278425765078</v>
+        <v>-71.65440618645331</v>
       </c>
       <c r="C5">
-        <v>0.065450049</v>
+        <v>0.180457427</v>
       </c>
       <c r="D5">
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
         <v>272</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>245</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>-112.76674326578738</v>
+        <v>-70.22823721822225</v>
       </c>
       <c r="C6">
-        <v>0.063579204</v>
+        <v>1.016184596</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F6">
-        <v>272</v>
+        <v>4</v>
       </c>
       <c r="G6">
-        <v>245</v>
+        <v>938</v>
       </c>
       <c r="H6">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>980</v>
+      </c>
+      <c r="I6">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>-115.68865497375448</v>
+        <v>-71.8437084587609</v>
       </c>
       <c r="C7">
-        <v>0.04904264</v>
+        <v>0.863705094</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F7">
-        <v>272</v>
+        <v>4</v>
       </c>
       <c r="G7">
-        <v>245</v>
+        <v>938</v>
       </c>
       <c r="H7">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>980</v>
+      </c>
+      <c r="I7">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>-107.27603826729671</v>
+        <v>-67.12860513254927</v>
       </c>
       <c r="C8">
-        <v>0.105722794</v>
+        <v>1.231579194</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F8">
-        <v>272</v>
+        <v>4</v>
       </c>
       <c r="G8">
-        <v>245</v>
+        <v>938</v>
       </c>
       <c r="H8">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>980</v>
+      </c>
+      <c r="I8">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>-113.66017870121229</v>
+        <v>-71.56787798834289</v>
       </c>
       <c r="C9">
-        <v>0.079744228</v>
+        <v>0.570674783</v>
       </c>
       <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9">
         <v>2</v>
       </c>
-      <c r="E9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9">
-        <v>272</v>
-      </c>
       <c r="G9">
-        <v>245</v>
+        <v>494</v>
       </c>
       <c r="H9">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>490</v>
+      </c>
+      <c r="I9">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>-113.61718064292607</v>
+        <v>-70.884938041055</v>
       </c>
       <c r="C10">
-        <v>0.07001839</v>
+        <v>0.945366602</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F10">
-        <v>272</v>
+        <v>4</v>
       </c>
       <c r="G10">
-        <v>245</v>
+        <v>938</v>
       </c>
       <c r="H10">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>980</v>
+      </c>
+      <c r="I10">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>-109.19039307687441</v>
+        <v>-68.19423108211265</v>
       </c>
       <c r="C11">
-        <v>0.061306285</v>
+        <v>0.912075649</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F11">
-        <v>272</v>
+        <v>3</v>
       </c>
       <c r="G11">
-        <v>245</v>
+        <v>716</v>
       </c>
       <c r="H11">
-        <v>20</v>
+        <v>735</v>
+      </c>
+      <c r="I11">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -724,27 +763,30 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -755,20 +797,77 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>22.49024</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.023908575330932616</v>
+      </c>
+      <c r="E2">
+        <v>41.2321</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-113.61718064292607</v>
+        <v>-76.77371651908325</v>
       </c>
       <c r="C3">
-        <v>0.0</v>
+        <v>0.012577942206178798</v>
       </c>
       <c r="D3">
+        <v>0.04298716493225098</v>
+      </c>
+      <c r="E3">
+        <v>1.75427</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>-72.34076340718852</v>
+      </c>
+      <c r="C4">
+        <v>0.02992155225230623</v>
+      </c>
+      <c r="D4">
+        <v>0.0925875990258789</v>
+      </c>
+      <c r="E4">
+        <v>0.76026</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>-71.1714407623135</v>
+      </c>
+      <c r="C5">
+        <v>0.0071033282328576315</v>
+      </c>
+      <c r="D5">
+        <v>0.1339238460053711</v>
+      </c>
+      <c r="E5">
+        <v>0.60447</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>-70.884938041055</v>
+      </c>
+      <c r="C6">
+        <v>0.09904266464114792</v>
+      </c>
+      <c r="D6">
+        <v>0.4689431328959961</v>
+      </c>
+      <c r="E6">
         <v>0.0</v>
       </c>
     </row>
@@ -779,27 +878,30 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -810,20 +912,60 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>21.41624</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.023561188064208986</v>
+      </c>
+      <c r="E2">
+        <v>39.2631</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-109.19039307687441</v>
+        <v>-68.84719227585802</v>
       </c>
       <c r="C3">
-        <v>1.301474819784189e-14</v>
+        <v>0.005591639135361413</v>
       </c>
       <c r="D3">
+        <v>0.26405790092651366</v>
+      </c>
+      <c r="E3">
+        <v>0.7647</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>-68.2619291765429</v>
+      </c>
+      <c r="C4">
+        <v>0.07616298691633154</v>
+      </c>
+      <c r="D4">
+        <v>0.10802509695715332</v>
+      </c>
+      <c r="E4">
+        <v>0.32714</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>-68.19423108211265</v>
+      </c>
+      <c r="C5">
+        <v>0.04964496590749833</v>
+      </c>
+      <c r="D5">
+        <v>0.3895236939942627</v>
+      </c>
+      <c r="E5">
         <v>0.0</v>
       </c>
     </row>
@@ -834,27 +976,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -865,20 +1010,43 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>21.15634</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>1.0583475416533203</v>
+      </c>
+      <c r="E2">
+        <v>38.78663</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-112.68113442290272</v>
+        <v>-73.17257671314809</v>
       </c>
       <c r="C3">
         <v>0.0</v>
       </c>
       <c r="D3">
+        <v>0.22521306011462403</v>
+      </c>
+      <c r="E3">
+        <v>1.49013</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>-71.65924129199976</v>
+      </c>
+      <c r="C4">
+        <v>0.06479180040290934</v>
+      </c>
+      <c r="D4">
+        <v>0.34074417078735353</v>
+      </c>
+      <c r="E4">
         <v>0.0</v>
       </c>
     </row>
@@ -889,27 +1057,30 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -920,20 +1091,60 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>22.04573</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.009657873094848633</v>
+      </c>
+      <c r="E2">
+        <v>40.41718</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-110.48340379129283</v>
+        <v>-75.8012608684013</v>
       </c>
       <c r="C3">
-        <v>0.0</v>
+        <v>0.00911231228402733</v>
       </c>
       <c r="D3">
+        <v>0.06277393593737793</v>
+      </c>
+      <c r="E3">
+        <v>1.62501</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>-70.58337595135058</v>
+      </c>
+      <c r="C4">
+        <v>0.008668997900070492</v>
+      </c>
+      <c r="D4">
+        <v>0.10674114790563966</v>
+      </c>
+      <c r="E4">
+        <v>0.76689</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>-69.4525623469496</v>
+      </c>
+      <c r="C5">
+        <v>0.03783807411897675</v>
+      </c>
+      <c r="D5">
+        <v>0.1841506369185791</v>
+      </c>
+      <c r="E5">
         <v>0.0</v>
       </c>
     </row>
@@ -944,27 +1155,30 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -975,20 +1189,77 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>20.78322</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.009304615594360351</v>
+      </c>
+      <c r="E2">
+        <v>38.10258</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-114.51161653481327</v>
+        <v>-79.39290550729248</v>
       </c>
       <c r="C3">
-        <v>1.2409967779006313e-14</v>
+        <v>0.010299158636216901</v>
       </c>
       <c r="D3">
+        <v>0.056887022731689454</v>
+      </c>
+      <c r="E3">
+        <v>2.31333</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>-73.24450000917918</v>
+      </c>
+      <c r="C4">
+        <v>0.09049869627480656</v>
+      </c>
+      <c r="D4">
+        <v>0.1315058522598877</v>
+      </c>
+      <c r="E4">
+        <v>2.6616</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>-71.59773762002459</v>
+      </c>
+      <c r="C5">
+        <v>0.0</v>
+      </c>
+      <c r="D5">
+        <v>0.12614655786706544</v>
+      </c>
+      <c r="E5">
+        <v>0.67408</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>-71.24685991078216</v>
+      </c>
+      <c r="C6">
+        <v>0.03254834099425353</v>
+      </c>
+      <c r="D6">
+        <v>0.35195741924914553</v>
+      </c>
+      <c r="E6">
         <v>0.0</v>
       </c>
     </row>
@@ -999,27 +1270,30 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1030,20 +1304,26 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>22.10742</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.035510866464355466</v>
+      </c>
+      <c r="E2">
+        <v>40.53027</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-115.20278425765078</v>
+        <v>-71.65440618645331</v>
       </c>
       <c r="C3">
-        <v>0.0</v>
+        <v>0.0868270379893756</v>
       </c>
       <c r="D3">
+        <v>0.07913564357873534</v>
+      </c>
+      <c r="E3">
         <v>0.0</v>
       </c>
     </row>
@@ -1054,27 +1334,30 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1085,20 +1368,77 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>22.82772</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.009684106581298828</v>
+      </c>
+      <c r="E2">
+        <v>41.85082</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-112.76674326578738</v>
+        <v>-76.78978536810203</v>
       </c>
       <c r="C3">
         <v>0.0</v>
       </c>
       <c r="D3">
+        <v>0.036899556138549804</v>
+      </c>
+      <c r="E3">
+        <v>2.8582</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>-74.51173830267824</v>
+      </c>
+      <c r="C4">
+        <v>0.0</v>
+      </c>
+      <c r="D4">
+        <v>0.11175870038977051</v>
+      </c>
+      <c r="E4">
+        <v>1.76995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>-70.32288372474389</v>
+      </c>
+      <c r="C5">
+        <v>0.041636361346308076</v>
+      </c>
+      <c r="D5">
+        <v>0.42436895385314943</v>
+      </c>
+      <c r="E5">
+        <v>0.44055</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>-70.22823721822225</v>
+      </c>
+      <c r="C6">
+        <v>0.0025344546475196197</v>
+      </c>
+      <c r="D6">
+        <v>0.2895428376048584</v>
+      </c>
+      <c r="E6">
         <v>0.0</v>
       </c>
     </row>
@@ -1109,27 +1449,30 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1140,20 +1483,77 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>22.3254</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.024567713326538086</v>
+      </c>
+      <c r="E2">
+        <v>40.92989</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-115.68865497375448</v>
+        <v>-75.25495756841948</v>
       </c>
       <c r="C3">
         <v>0.0</v>
       </c>
       <c r="D3">
+        <v>0.07721357865734862</v>
+      </c>
+      <c r="E3">
+        <v>1.36038</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>-73.42948026265238</v>
+      </c>
+      <c r="C4">
+        <v>0.08892662105828772</v>
+      </c>
+      <c r="D4">
+        <v>0.2271244847314453</v>
+      </c>
+      <c r="E4">
+        <v>1.24774</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>-72.52207583156212</v>
+      </c>
+      <c r="C5">
+        <v>0.015065725373282957</v>
+      </c>
+      <c r="D5">
+        <v>0.15384567057006837</v>
+      </c>
+      <c r="E5">
+        <v>0.36402</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>-71.8437084587609</v>
+      </c>
+      <c r="C6">
+        <v>0.08312020727051916</v>
+      </c>
+      <c r="D6">
+        <v>0.23259027503918456</v>
+      </c>
+      <c r="E6">
         <v>0.0</v>
       </c>
     </row>
@@ -1164,27 +1564,30 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1195,20 +1598,77 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>20.05168</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.024823982072753905</v>
+      </c>
+      <c r="E2">
+        <v>36.76141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-107.27603826729671</v>
+        <v>-73.46744155768822</v>
       </c>
       <c r="C3">
-        <v>0.0</v>
+        <v>0.0357160389418011</v>
       </c>
       <c r="D3">
+        <v>0.05582741068041992</v>
+      </c>
+      <c r="E3">
+        <v>1.67635</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>-67.22887832278344</v>
+      </c>
+      <c r="C4">
+        <v>0.020194633238481755</v>
+      </c>
+      <c r="D4">
+        <v>0.3037999732677002</v>
+      </c>
+      <c r="E4">
+        <v>0.42691</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>-67.13395308681898</v>
+      </c>
+      <c r="C5">
+        <v>0.09705781198638544</v>
+      </c>
+      <c r="D5">
+        <v>0.3397459159658203</v>
+      </c>
+      <c r="E5">
+        <v>0.04237</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>-67.12860513254927</v>
+      </c>
+      <c r="C6">
+        <v>0.0740985566470825</v>
+      </c>
+      <c r="D6">
+        <v>0.3387592392775879</v>
+      </c>
+      <c r="E6">
         <v>0.0</v>
       </c>
     </row>
@@ -1219,27 +1679,30 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1250,20 +1713,43 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>22.60648</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.0352185465802002</v>
+      </c>
+      <c r="E2">
+        <v>41.44521</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-113.66017870121229</v>
+        <v>-75.33276761926348</v>
       </c>
       <c r="C3">
-        <v>0.0</v>
+        <v>0.08664697338940827</v>
       </c>
       <c r="D3">
+        <v>0.24052449817382812</v>
+      </c>
+      <c r="E3">
+        <v>1.21594</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>-71.56787798834289</v>
+      </c>
+      <c r="C4">
+        <v>0.07044013176901014</v>
+      </c>
+      <c r="D4">
+        <v>0.21150915509020995</v>
+      </c>
+      <c r="E4">
         <v>0.0</v>
       </c>
     </row>
